--- a/data/trans_dic/P16B17-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B17-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B17-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B17-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
     </row>
@@ -757,12 +757,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -772,12 +772,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -867,32 +867,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -920,32 +920,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
     </row>
@@ -977,32 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1030,32 +1030,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
     </row>
@@ -1087,32 +1087,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
     </row>
@@ -1197,32 +1197,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1250,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
     </row>
